--- a/4575-dodrzovani-zakona-o-registru-smluv/0-analyza/analyza.xlsx
+++ b/4575-dodrzovani-zakona-o-registru-smluv/0-analyza/analyza.xlsx
@@ -2,16 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$A$1:$E$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,240 +24,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="78">
-  <si>
-    <t>Subjekt</t>
-  </si>
-  <si>
-    <t>Zveřejňuje smlouvy?</t>
-  </si>
-  <si>
-    <t>Uvádí ceny?</t>
-  </si>
-  <si>
-    <t>Poznámka</t>
-  </si>
-  <si>
-    <t>Podnět k nápravě</t>
-  </si>
-  <si>
-    <t>Reakce</t>
-  </si>
-  <si>
-    <t>Technická správa komunikací</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>Městská policie Praha</t>
-  </si>
-  <si>
-    <t>Institut plánování a rozvoje</t>
-  </si>
-  <si>
-    <t>Správa služeb hl. m. Prahy</t>
-  </si>
-  <si>
-    <t>ZDRAV.ZÁCHR.SLUŽBA HMP</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>Odeslán 21.12.</t>
-  </si>
-  <si>
-    <t>MĚSTSKÁ KNIHOVNA V PRAZE</t>
-  </si>
-  <si>
-    <t>ZOOLOGICKÁ ZAHRADA HL. M. PRAHY</t>
-  </si>
-  <si>
-    <t>CENTRUM SOC.SLUŽ. PRAHA</t>
-  </si>
-  <si>
-    <t>GALERIE HL.M.PRAHY</t>
-  </si>
-  <si>
-    <t>SYMFONICKÝ ORCHESTR HL. M. PRAHY FOK</t>
-  </si>
-  <si>
-    <t>smlouvy nejsou strojově čitelné</t>
-  </si>
-  <si>
-    <t>BOTANICKÁ ZAHRADA HL.M.PRAHY</t>
-  </si>
-  <si>
-    <t>některé nejsou strojově čitelné.</t>
-  </si>
-  <si>
-    <t>ROPID</t>
-  </si>
-  <si>
-    <t>DIVADLO NA VINOHRADECH</t>
-  </si>
-  <si>
-    <t>MĚSTSKÁ DIVADLA PRAŽSKÁ</t>
-  </si>
-  <si>
-    <t>napravili</t>
-  </si>
-  <si>
-    <t>JEDLIČKŮV ÚSTAV, MŠ,ZŠ,SŠ</t>
-  </si>
-  <si>
-    <t>HUD.DIVADLO V KARLÍNĚ</t>
-  </si>
-  <si>
-    <t>SPRÁVA PRAŽ.HŘBITOVŮ</t>
-  </si>
-  <si>
-    <t>Dopravní podnik hl. m. Prahy</t>
-  </si>
-  <si>
-    <t>částečně</t>
-  </si>
-  <si>
-    <t>Pražská strojírna</t>
-  </si>
-  <si>
-    <t>Střední průmyslová škola dopravní</t>
-  </si>
-  <si>
-    <t>Kolektory Praha</t>
-  </si>
-  <si>
-    <t>Obecní dům</t>
-  </si>
-  <si>
-    <t>Operátor Opencard</t>
-  </si>
-  <si>
-    <t>Pražská plynárenská Holding</t>
-  </si>
-  <si>
-    <t>Pražská plynárenská</t>
-  </si>
-  <si>
-    <t>Informační služby – energetika</t>
-  </si>
-  <si>
-    <t>Pražská plynárenská Distribuce</t>
-  </si>
-  <si>
-    <t>Pražská plynárenská Servis distribuce</t>
-  </si>
-  <si>
-    <t>Pražská plynárenská Správa majetku</t>
-  </si>
-  <si>
-    <t>Prometheus, energetické služby</t>
-  </si>
-  <si>
-    <t>Pražská vodohospodářská společnost</t>
-  </si>
-  <si>
-    <t>Rozvojové projekty Praha</t>
-  </si>
-  <si>
-    <t>TRADE CENTRE PRAHA</t>
-  </si>
-  <si>
-    <t>nejsou strojově čitelné, jsou tam další chyby</t>
-  </si>
-  <si>
-    <t>Odeslán 13.12</t>
-  </si>
-  <si>
-    <t>Zdroj pitné vody Káraný</t>
-  </si>
-  <si>
-    <t>Vodárna Káraný</t>
-  </si>
-  <si>
-    <t>Úpravna vody Želivka</t>
-  </si>
-  <si>
-    <t>Želivská provozní</t>
-  </si>
-  <si>
-    <t>Kongresové centrum Praha</t>
-  </si>
-  <si>
-    <t>MČ Praha 1</t>
-  </si>
-  <si>
-    <t>MČ Praha 2</t>
-  </si>
-  <si>
-    <t>MČ Praha 3</t>
-  </si>
-  <si>
-    <t>MČ Praha 4</t>
-  </si>
-  <si>
-    <t>MČ Praha 5</t>
-  </si>
-  <si>
-    <t>prý napraví v lednu 2017</t>
-  </si>
-  <si>
-    <t>MČ Praha 6</t>
-  </si>
-  <si>
-    <t>MČ Praha 7</t>
-  </si>
-  <si>
-    <t>MČ Praha 8</t>
-  </si>
-  <si>
-    <t>prý napraví brzy</t>
-  </si>
-  <si>
-    <t>MČ Praha 9</t>
-  </si>
-  <si>
-    <t>MČ Praha 10</t>
-  </si>
-  <si>
-    <t>MČ Praha 11</t>
-  </si>
-  <si>
-    <t>MČ Praha 12</t>
-  </si>
-  <si>
-    <t>MČ Praha 13</t>
-  </si>
-  <si>
-    <t>Nutno poslat!</t>
-  </si>
-  <si>
-    <t>MČ Praha 14</t>
-  </si>
-  <si>
-    <t>MČ Praha 15</t>
-  </si>
-  <si>
-    <t>MČ Praha 16</t>
-  </si>
-  <si>
-    <t>MČ Praha 17</t>
-  </si>
-  <si>
-    <t>MČ Praha 18</t>
-  </si>
-  <si>
-    <t>MČ Praha 19</t>
-  </si>
-  <si>
-    <t>MČ Praha 20</t>
-  </si>
-  <si>
-    <t>MČ Praha 21</t>
-  </si>
-  <si>
-    <t>MČ Praha 22</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+  <si>
+    <t xml:space="preserve">Subjekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zveřejňuje smlouvy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uvádí ceny?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poznámka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podnět k nápravě</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reakce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technická správa komunikací</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Městská policie Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut plánování a rozvoje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Správa služeb hl. m. Prahy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDRAV.ZÁCHR.SLUŽBA HMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odeslán 21.12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MĚSTSKÁ KNIHOVNA V PRAZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOOLOGICKÁ ZAHRADA HL. M. PRAHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRUM SOC.SLUŽ. PRAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALERIE HL.M.PRAHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYMFONICKÝ ORCHESTR HL. M. PRAHY FOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smlouvy nejsou strojově čitelné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTANICKÁ ZAHRADA HL.M.PRAHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">některé nejsou strojově čitelné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVADLO NA VINOHRADECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MĚSTSKÁ DIVADLA PRAŽSKÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">napravili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEDLIČKŮV ÚSTAV, MŠ,ZŠ,SŠ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUD.DIVADLO V KARLÍNĚ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRÁVA PRAŽ.HŘBITOVŮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dopravní podnik hl. m. Prahy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">částečně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská strojírna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Střední průmyslová škola dopravní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolektory Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obecní dům</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operátor Opencard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská plynárenská Holding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská plynárenská</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informační služby – energetika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská plynárenská Distribuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská plynárenská Servis distribuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská plynárenská Správa majetku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prometheus, energetické služby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pražská vodohospodářská společnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozvojové projekty Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRADE CENTRE PRAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nejsou strojově čitelné, jsou tam další chyby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odeslán 13.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdroj pitné vody Káraný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vodárna Káraný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Úpravna vody Želivka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Želivská provozní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kongresové centrum Praha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prý napraví v lednu 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prý napraví brzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MČ Praha 22</t>
   </si>
 </sst>
 </file>
@@ -264,13 +262,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,6 +291,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,16 +336,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,16 +373,16 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,7 +611,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -626,7 +622,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -640,7 +636,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -654,7 +650,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -665,7 +661,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -676,7 +672,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -690,7 +686,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -704,7 +700,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -718,7 +714,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -732,7 +728,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -746,7 +742,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -760,7 +756,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -774,7 +770,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -788,7 +784,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -799,7 +795,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -813,7 +809,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -830,7 +826,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -844,7 +840,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -872,7 +868,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -886,7 +882,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -1057,18 +1053,15 @@
         <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>7</v>
@@ -1079,7 +1072,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>7</v>
@@ -1090,7 +1083,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>7</v>
@@ -1104,7 +1097,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>7</v>
@@ -1115,7 +1108,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -1129,7 +1122,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>7</v>
@@ -1140,7 +1133,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>7</v>
@@ -1154,7 +1147,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>7</v>
@@ -1165,7 +1158,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>7</v>
